--- a/硬软/水电木瓦油.xlsx
+++ b/硬软/水电木瓦油.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\盛世金堂\-\硬软\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40FC75-7546-4443-8172-44B1B62C1BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3026D9-3986-43EE-84C3-5FBDA849A9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="地板" sheetId="1" r:id="rId1"/>
+    <sheet name="强化" sheetId="1" r:id="rId1"/>
+    <sheet name="实木复合" sheetId="2" r:id="rId2"/>
+    <sheet name="三层实木" sheetId="3" r:id="rId3"/>
+    <sheet name="实木" sheetId="4" r:id="rId4"/>
+    <sheet name="超级" sheetId="5" r:id="rId5"/>
+    <sheet name="地热实木" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化复合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VT39039</t>
   </si>
   <si>
@@ -82,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实木复合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1218*195*11-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJX65Z DJX66Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DZX140Z</t>
   </si>
   <si>
@@ -215,46 +200,347 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>BS</t>
-    </r>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1213*148*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD005</t>
+  </si>
+  <si>
+    <t>大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5565M 榉木</t>
+  </si>
+  <si>
+    <t>1220*167*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榉木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HH9B12V</t>
+  </si>
+  <si>
+    <t>榆木</t>
+  </si>
+  <si>
+    <t>1210*186*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM73A23</t>
+  </si>
+  <si>
+    <t>2190*182*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白橡木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C06A2VB风情巴洛克</t>
+  </si>
+  <si>
+    <t>1860*189*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900*118*16.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番龙眼2色</t>
+  </si>
+  <si>
+    <t>材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番龙眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1391P（火）</t>
+  </si>
+  <si>
+    <t>910*92*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡雅楝（桃花芯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600-900*86*17.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花芯</t>
+  </si>
+  <si>
+    <t>印茄T0231P</t>
+  </si>
+  <si>
+    <t>910*135-140*18</t>
+  </si>
+  <si>
+    <t>印茄木</t>
+  </si>
+  <si>
+    <t> T2941P（J）L</t>
+  </si>
+  <si>
+    <t>610/710/760/810*92*18</t>
+  </si>
+  <si>
+    <t>柚木</t>
+  </si>
+  <si>
+    <t>699-949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1174P包</t>
+  </si>
+  <si>
+    <t>910*92-125*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香脂木豆</t>
+  </si>
+  <si>
+    <t>桦木</t>
+  </si>
+  <si>
+    <t>西南桦（预）</t>
+  </si>
+  <si>
+    <t>610*92*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS系列</t>
+  </si>
+  <si>
+    <t>卡扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1216*165*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG05查理大桥</t>
+  </si>
+  <si>
+    <t>920*127*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 枫木</t>
+  </si>
+  <si>
+    <t>平口</t>
+  </si>
+  <si>
+    <t>桉杂</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSM005</t>
+  </si>
+  <si>
+    <t>1210*162*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山核桃</t>
+  </si>
+  <si>
+    <t>CX-202</t>
+  </si>
+  <si>
+    <t>1200*150*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡木</t>
+  </si>
+  <si>
+    <t>SM001</t>
+  </si>
+  <si>
+    <t>900*182*17.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM003</t>
+  </si>
+  <si>
+    <t>910*123*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南洋胡桃木</t>
+  </si>
+  <si>
+    <t>SD007</t>
+  </si>
+  <si>
+    <t>910*127*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSM002</t>
+  </si>
+  <si>
+    <t>桦木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSM006</t>
+  </si>
+  <si>
+    <t>栎木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSM05</t>
+  </si>
+  <si>
+    <t>600*86*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槐木</t>
+  </si>
+  <si>
+    <t>DRSM01</t>
+  </si>
+  <si>
+    <t>900*115*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> SM008</t>
+  </si>
+  <si>
+    <t>910*150*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺槐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM007</t>
+  </si>
+  <si>
+    <t>910*168*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆盘豆（绿柄桑）</t>
+  </si>
+  <si>
+    <t>CJ01爱丽丝</t>
+  </si>
+  <si>
+    <t>1220*145*5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV环氧工艺+耐磨层+彩膜层+柔韧回弹层+SPP石岩粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槐木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSM03</t>
+  </si>
+  <si>
+    <t>腺瘤豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1286*194*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP多层</t>
+  </si>
+  <si>
+    <t>910*125*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
       </rPr>
-      <t>系列</t>
+      <t>椿木</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1213*148*12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实木复合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD005</t>
+    <t>平口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,19 +562,40 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF666666"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft yahei"/>
+      <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,7 +606,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,22 +614,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,362 +947,1180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6">
+        <v>96</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="10">
+        <v>113</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11021</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF314E3C-45CF-45A3-8335-409403470BD2}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>262</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>228</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>288</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B5" s="3">
+        <v>240</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>258</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3">
+        <v>226</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>259</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="F8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3">
+        <v>262</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3">
+        <v>296</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3">
+        <v>169</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>432</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>388</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3">
+        <v>279</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>262</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>228</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>288</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>240</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>0.6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>258</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>0.6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>226</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9">
-        <v>0.6</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>259</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>0.6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>498</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB278A8F-447A-4918-B9E1-2597124CFD71}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>311</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>432</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6">
+        <v>341</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7">
+        <v>318</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F236B48-C8F4-421C-A2BF-9821D4F4BFD6}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6">
+        <v>354</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6">
+        <v>373</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6">
+        <v>342</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6">
+        <v>434</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6">
+        <v>863</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6">
+        <v>776</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>325</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6">
+        <v>253</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7">
+        <v>287</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7">
+        <v>330</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7">
+        <v>512</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7">
+        <v>409</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7">
+        <v>341</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D2AF5B-EC93-47B1-8ABB-8C500EF6826B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B4D403-760D-4A2C-AF27-23A091EB4069}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>514</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>379</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>443</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>